--- a/Requisiti/Requisiti_GB.xlsx
+++ b/Requisiti/Requisiti_GB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gionatabattaglioni/Desktop/SCUOLA/4_QUARTA/PROFESSIONALE/PROGETTI/PROG_2/Analisi/Requsiti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87524C-7C92-EA46-A1B9-2770364F65BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD1198-B14C-6543-9BC8-D90313DBFC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
+    <workbookView xWindow="15760" yWindow="460" windowWidth="13040" windowHeight="16180" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -282,13 +282,19 @@
     <t>Creazione di una nuova sessione di progetti</t>
   </si>
   <si>
-    <t>La sessione contiene il semestre della sessione, nel quale si potranno poi quando viene creato un progetto si potrà selezionare la sessione appena creata</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filtro per classe </t>
   </si>
   <si>
     <t>Filtro per semestre</t>
+  </si>
+  <si>
+    <t>La sessione contiene il semestre della sessione, nel quale si potranno poi quando viene creato un progetto selezionare la sessione appena creata</t>
+  </si>
+  <si>
+    <t>I docenti possono scegliere su quale sessione lavorare es: semestre e LPI</t>
+  </si>
+  <si>
+    <t>Dalla sessione è possibile scelgiere una data per dare la visualizzazione dei progetti agli allievi e dare una data di selezione dei proggetti.</t>
   </si>
 </sst>
 </file>
@@ -521,12 +527,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -535,21 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -871,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524A218A-4FBF-6B4F-AE42-111B91296F1B}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="107" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="107" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1311,77 +1317,77 @@
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="25">
         <v>3</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -1696,14 +1702,14 @@
       <c r="A72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="24"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -1813,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -1839,7 +1845,7 @@
         <v>58</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -1941,14 +1947,14 @@
       <c r="A93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
@@ -1976,64 +1982,66 @@
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="12">
-        <v>5</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="12">
         <v>5</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -2042,11 +2050,9 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -2054,11 +2060,11 @@
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>10</v>
+      <c r="A103" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2068,10 +2074,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -2079,12 +2085,12 @@
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -2092,12 +2098,12 @@
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -2105,219 +2111,221 @@
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B109" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="16"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="19"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="20">
-        <v>6</v>
-      </c>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="25">
         <v>6</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="19"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="27"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="18"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="16"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B114" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="19"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="19"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="18"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B117" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="27"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="19"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="21"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B119" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B120" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="24"/>
-    </row>
-    <row r="120" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="15"/>
+    </row>
+    <row r="121" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B122" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="12">
-        <v>1</v>
-      </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="9"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B124" s="12">
+        <v>1</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -2326,11 +2334,9 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -2338,11 +2344,11 @@
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>10</v>
+      <c r="A127" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -2352,10 +2358,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -2378,10 +2384,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -2391,10 +2397,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -2404,10 +2410,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -2415,64 +2421,66 @@
       <c r="F132" s="8"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="11"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="11"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B136" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B137" s="12">
         <v>6</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="9"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -2481,11 +2489,9 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -2493,11 +2499,11 @@
       <c r="G139" s="9"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>10</v>
+      <c r="A140" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -2505,64 +2511,66 @@
       <c r="F140" s="8"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="11"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="9"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="11"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="12">
-        <v>1</v>
-      </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="9"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B145" s="12">
+        <v>1</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -2571,11 +2579,9 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -2583,11 +2589,11 @@
       <c r="G147" s="9"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>10</v>
+      <c r="A148" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -2595,72 +2601,119 @@
       <c r="F148" s="8"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="29"/>
+      <c r="B150" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="29"/>
+    </row>
+    <row r="151" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B142:G142"/>
+  <mergeCells count="135">
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
     <mergeCell ref="B90:G90"/>
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="B93:G93"/>
@@ -2673,76 +2726,57 @@
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B89:G89"/>
     <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B145:G145"/>
     <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
     <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requisiti/Requisiti_GB.xlsx
+++ b/Requisiti/Requisiti_GB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gionatabattaglioni/Desktop/SCUOLA/4_QUARTA/PROFESSIONALE/PROGETTI/PROG_2/Analisi/Requsiti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD1198-B14C-6543-9BC8-D90313DBFC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFDBF0-10AE-D948-B41C-D2A5868B9CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="460" windowWidth="13040" windowHeight="16180" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Una volta riempito il forumlario in fondo ad esso verrà calcolato il voto in autimatico</t>
   </si>
   <si>
-    <t xml:space="preserve">Tramite un bottone è possibile savare il tutto </t>
-  </si>
-  <si>
     <t>Tramite un secondo bottone verrà creato un PDF</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Quando viene aggiunto un progetto viene inserita la data e il semestre</t>
   </si>
   <si>
-    <t>Il docente inserisce due date, la prima indica quando il progetto sarà visibile agli allievi mentre la seconda indica quando il progetto potrà essere selezionato dagli allievi</t>
-  </si>
-  <si>
     <t>Creazione di una nuova sessione di progetti</t>
   </si>
   <si>
@@ -295,13 +289,31 @@
   </si>
   <si>
     <t>Dalla sessione è possibile scelgiere una data per dare la visualizzazione dei progetti agli allievi e dare una data di selezione dei proggetti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire i filtri per parte del formulario es: A, B, C, totale... </t>
+  </si>
+  <si>
+    <t>REQ-016</t>
+  </si>
+  <si>
+    <t>Scaletta presentazioni</t>
+  </si>
+  <si>
+    <t>Prendere la data di fine progetto</t>
+  </si>
+  <si>
+    <t>Prendere le date dei giorni di progetto</t>
+  </si>
+  <si>
+    <t>Allestire una tabella contenente la data, il nome dell'allievo e il nome del progetto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,8 +321,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +348,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -502,11 +533,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -517,16 +587,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -536,14 +596,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -562,6 +623,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524A218A-4FBF-6B4F-AE42-111B91296F1B}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="107" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,1076 +974,1063 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="17">
         <v>2</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
+      <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
+      <c r="B36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="22">
         <v>3</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="17">
         <v>3</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="11"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="17">
         <v>4</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="15"/>
+      <c r="B72" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="17">
         <v>4</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
+      <c r="B82" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B84" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="12">
-        <v>5</v>
-      </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="17">
         <v>5</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B92" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B93" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -1973,689 +2042,807 @@
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
+      <c r="B95" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="16"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="16"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="B97" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="14"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="12">
-        <v>5</v>
-      </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="16"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="17">
         <v>5</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="16"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="16"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+      <c r="B106" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="16"/>
+    </row>
+    <row r="107" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="16"/>
+    </row>
+    <row r="109" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B110" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="18"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="25">
-        <v>6</v>
-      </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="12"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="22">
         <v>6</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="18"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B115" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="18"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="18"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="12"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="21"/>
+      <c r="B117" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B118" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="18"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B119" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="18"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="12"/>
     </row>
     <row r="120" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B120" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="15"/>
-    </row>
-    <row r="121" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="11"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="35"/>
+    </row>
+    <row r="123" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="B123" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="38"/>
+    </row>
+    <row r="124" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="40">
+        <v>6</v>
+      </c>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="41"/>
+    </row>
+    <row r="125" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="38"/>
+    </row>
+    <row r="126" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="37"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="38"/>
+    </row>
+    <row r="127" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="38"/>
+    </row>
+    <row r="128" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="38"/>
+    </row>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="32"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="38"/>
+    </row>
+    <row r="131" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="16"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="17">
         <v>1</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="13"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B135" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="9"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="9"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="11"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="16"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="16"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="12">
-        <v>6</v>
-      </c>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="16"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
+      <c r="A138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="16"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
+      <c r="A139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="9"/>
+      <c r="A140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
-    </row>
-    <row r="142" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+        <v>41</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="16"/>
+    </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="16"/>
+    </row>
+    <row r="144" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="11"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="12">
-        <v>1</v>
-      </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="13"/>
+      <c r="B145" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="14"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16"/>
+    </row>
+    <row r="147" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="17">
         <v>6</v>
       </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="18"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B150" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+      <c r="B151" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="16"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="17">
+        <v>1</v>
+      </c>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="18"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="16"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B150" s="28" t="s">
+      <c r="B160" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="26"/>
+    </row>
+    <row r="161" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="29"/>
-    </row>
-    <row r="151" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="29"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B150:G150"/>
+  <mergeCells count="142">
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B108:G108"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
@@ -2678,6 +2865,14 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B51:G51"/>
@@ -2714,69 +2909,66 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B90:G90"/>
     <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B92:G92"/>
     <mergeCell ref="B94:G94"/>
     <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
     <mergeCell ref="B82:G82"/>
     <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B86:G86"/>
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
     <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B137:G137"/>
     <mergeCell ref="B138:G138"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B140:G140"/>
     <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B142:G142"/>
     <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="B100:G100"/>
     <mergeCell ref="B101:G101"/>
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B117:G117"/>
     <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requisiti/Requisiti_GB.xlsx
+++ b/Requisiti/Requisiti_GB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gionatabattaglioni/Desktop/SCUOLA/4_QUARTA/PROFESSIONALE/PROGETTI/PROG_2/Analisi/Requsiti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFDBF0-10AE-D948-B41C-D2A5868B9CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F1BE1-BC9A-944E-B96F-D595DCF3B9A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Allestire una tabella contenente la data, il nome dell'allievo e il nome del progetto</t>
+  </si>
+  <si>
+    <t>Generare un PDF della scaletta</t>
   </si>
 </sst>
 </file>
@@ -587,19 +590,25 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,6 +618,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -619,27 +631,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524A218A-4FBF-6B4F-AE42-111B91296F1B}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="83" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131:G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,1327 +977,1327 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="23">
         <v>1</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="23">
         <v>1</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="31">
         <v>3</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="23">
         <v>3</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="16"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="16"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="16"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="23">
         <v>3</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="16"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="16"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="23">
         <v>4</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
     </row>
     <row r="72" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="35"/>
     </row>
     <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="14"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="16"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="20"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="23">
         <v>4</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="20"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="16"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="20"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="16"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="16"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="16"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="20"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="16"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="16"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="20"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="16"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="86" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="14"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="16"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="23">
         <v>5</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="18"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="16"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="16"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="20"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="16"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="16"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="20"/>
     </row>
     <row r="94" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="35"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="16"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="20"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="16"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="20"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="16"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="20"/>
     </row>
     <row r="98" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="14"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="16"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="20"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="23">
         <v>5</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="18"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="16"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="20"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="16"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="20"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="16"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="20"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="16"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="20"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="16"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="20"/>
     </row>
     <row r="107" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="16"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="20"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="16"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="20"/>
     </row>
     <row r="109" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="27"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="12"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="30"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="22">
+      <c r="B112" s="31">
         <v>6</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="24"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="33"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="12"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="30"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="12"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="30"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="12"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="30"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="12"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="30"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
@@ -2313,544 +2316,630 @@
       <c r="A118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="30"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="12"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="30"/>
     </row>
     <row r="120" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="35"/>
     </row>
     <row r="121" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="35"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="38"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="16"/>
     </row>
     <row r="124" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="40">
+      <c r="B124" s="39">
         <v>6</v>
       </c>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
       <c r="G124" s="41"/>
     </row>
     <row r="125" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="38"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="16"/>
     </row>
     <row r="126" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="37"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="38"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="16"/>
     </row>
     <row r="127" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="38"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="16"/>
     </row>
     <row r="128" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="38"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="16"/>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="32"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="38"/>
-    </row>
-    <row r="131" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="16"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="16"/>
+    </row>
+    <row r="132" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B133" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="14"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="16"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="17">
-        <v>1</v>
-      </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="20"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="B135" s="23">
+        <v>1</v>
+      </c>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="20"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="20"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B138" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="16"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="16"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="20"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="20"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="20"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="20"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="20"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="20"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B144" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="16"/>
-    </row>
-    <row r="144" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="20"/>
+    </row>
+    <row r="145" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B146" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="22"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B147" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="16"/>
-    </row>
-    <row r="147" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B148" s="23">
         <v>6</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="18"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="16"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="20"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B151" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="16"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B152" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="16"/>
-    </row>
-    <row r="152" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="20"/>
+    </row>
+    <row r="153" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B154" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="14"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="16"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="22"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="17">
-        <v>1</v>
-      </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="20"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="B156" s="23">
+        <v>1</v>
+      </c>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="20"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="20"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B159" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="16"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="20"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B160" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="16"/>
-    </row>
-    <row r="160" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="20"/>
+    </row>
+    <row r="161" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="25" t="s">
+      <c r="B161" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="26"/>
-    </row>
-    <row r="161" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B162" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="26"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
-    <mergeCell ref="B128:G128"/>
+  <mergeCells count="143">
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
     <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:G156"/>
     <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
@@ -2873,102 +2962,30 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requisiti/Requisiti_GB.xlsx
+++ b/Requisiti/Requisiti_GB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gionatabattaglioni/Desktop/SCUOLA/4_QUARTA/PROFESSIONALE/PROGETTI/PROG_2/Analisi/Requsiti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F1BE1-BC9A-944E-B96F-D595DCF3B9A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23B11D-A255-1940-B0B1-2AF9D2DD49E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{9F890A15-25A0-5C48-8D4D-438998A7EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
     <t>Prendere le date dei giorni di progetto</t>
   </si>
   <si>
-    <t>Allestire una tabella contenente la data, il nome dell'allievo e il nome del progetto</t>
-  </si>
-  <si>
     <t>Generare un PDF della scaletta</t>
+  </si>
+  <si>
+    <t>Allestire una tabella contenente la data, il nome dell'allievo, il nome del progetto e il nome del docente responsabile</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,31 +596,25 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,12 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -647,6 +635,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +974,7 @@
   <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScale="83" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131:G131"/>
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,14 +986,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1003,14 +1012,14 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1093,14 +1102,14 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1119,14 +1128,14 @@
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1209,14 +1218,14 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1235,14 +1244,14 @@
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>1</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1299,14 +1308,14 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -1325,14 +1334,14 @@
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>2</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -1402,77 +1411,77 @@
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="29">
         <v>3</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -1492,14 +1501,14 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -1518,14 +1527,14 @@
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="21">
         <v>3</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -1595,14 +1604,14 @@
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
@@ -1621,14 +1630,14 @@
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="21">
         <v>3</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -1698,14 +1707,14 @@
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
@@ -1724,14 +1733,14 @@
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="21">
         <v>4</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -1787,28 +1796,28 @@
       <c r="A72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="35"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="39"/>
     </row>
     <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
@@ -1827,14 +1836,14 @@
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="21">
         <v>4</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
@@ -1943,14 +1952,14 @@
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
@@ -1969,14 +1978,14 @@
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="21">
         <v>5</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
@@ -2032,14 +2041,14 @@
       <c r="A94" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="39"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -2085,14 +2094,14 @@
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
@@ -2111,14 +2120,14 @@
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="21">
         <v>5</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="24"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
@@ -2214,90 +2223,90 @@
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="30"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="16"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="31">
+      <c r="B112" s="29">
         <v>6</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="33"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="31"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="30"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="28"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="30"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="30"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="30"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
@@ -2316,132 +2325,132 @@
       <c r="A118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="30"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="16"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="30"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="35"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="39"/>
     </row>
     <row r="121" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="36" t="s">
+      <c r="B122" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="38"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="34"/>
     </row>
     <row r="123" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="16"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="25"/>
     </row>
     <row r="124" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B124" s="35">
         <v>6</v>
       </c>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="41"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="37"/>
     </row>
     <row r="125" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="16"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="25"/>
     </row>
     <row r="126" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="16"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="25"/>
     </row>
     <row r="127" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="16"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="25"/>
     </row>
     <row r="128" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="16"/>
-    </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="25"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>13</v>
       </c>
@@ -2454,45 +2463,45 @@
       <c r="F129" s="10"/>
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="16"/>
+      <c r="B130" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="44"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="16"/>
+      <c r="B131" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="25"/>
     </row>
     <row r="132" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="22"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="18"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
@@ -2511,14 +2520,14 @@
       <c r="A135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="23">
+      <c r="B135" s="21">
         <v>1</v>
       </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="24"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
@@ -2640,14 +2649,14 @@
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="22"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
@@ -2666,14 +2675,14 @@
       <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="23">
+      <c r="B148" s="21">
         <v>6</v>
       </c>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="24"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="22"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
@@ -2730,14 +2739,14 @@
       <c r="A154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="22"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="18"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
@@ -2756,14 +2765,14 @@
       <c r="A156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="23">
+      <c r="B156" s="21">
         <v>1</v>
       </c>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="24"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="22"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
@@ -2819,127 +2828,52 @@
       <c r="A161" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="18"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="40"/>
+      <c r="G161" s="41"/>
     </row>
     <row r="162" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="18"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
@@ -2962,30 +2896,105 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
     <mergeCell ref="B128:G128"/>
     <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
